--- a/Code/Results/Cases/Case_5_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_253/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.50688695811291</v>
+        <v>19.95221006506002</v>
       </c>
       <c r="C2">
-        <v>17.38722507388686</v>
+        <v>9.523817997876336</v>
       </c>
       <c r="D2">
-        <v>5.056043329659841</v>
+        <v>7.263747435841142</v>
       </c>
       <c r="E2">
-        <v>5.655463802384367</v>
+        <v>9.38983413409801</v>
       </c>
       <c r="F2">
-        <v>40.01467242255099</v>
+        <v>39.11008160143938</v>
       </c>
       <c r="I2">
-        <v>26.67122009162571</v>
+        <v>30.67827950301434</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.777351888649826</v>
+        <v>10.49374847646193</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.74883251693433</v>
+        <v>19.51527105547694</v>
       </c>
       <c r="C3">
-        <v>16.1555476262297</v>
+        <v>8.959559772404363</v>
       </c>
       <c r="D3">
-        <v>5.10231557379925</v>
+        <v>7.282965234280929</v>
       </c>
       <c r="E3">
-        <v>5.682706666714438</v>
+        <v>9.405329733874636</v>
       </c>
       <c r="F3">
-        <v>38.06399641320395</v>
+        <v>38.73492891471737</v>
       </c>
       <c r="I3">
-        <v>25.83361015667308</v>
+        <v>30.58314328341859</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.4949277466065</v>
+        <v>10.47525806446442</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.61660027174862</v>
+        <v>19.2485225153784</v>
       </c>
       <c r="C4">
-        <v>15.36293885882313</v>
+        <v>8.596659747759153</v>
       </c>
       <c r="D4">
-        <v>5.134116374100178</v>
+        <v>7.295720102052071</v>
       </c>
       <c r="E4">
-        <v>5.700855963759096</v>
+        <v>9.415484258095381</v>
       </c>
       <c r="F4">
-        <v>36.86547721041983</v>
+        <v>38.51459485985152</v>
       </c>
       <c r="I4">
-        <v>25.33648496194098</v>
+        <v>30.53209033613397</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.323150902159842</v>
+        <v>10.46620087574238</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.14172626765341</v>
+        <v>19.14038131367918</v>
       </c>
       <c r="C5">
-        <v>15.03060615589071</v>
+        <v>8.444775081115507</v>
       </c>
       <c r="D5">
-        <v>5.14786456974671</v>
+        <v>7.301156872693726</v>
       </c>
       <c r="E5">
-        <v>5.708600389713532</v>
+        <v>9.419783543343966</v>
       </c>
       <c r="F5">
-        <v>36.37721071535603</v>
+        <v>38.42740137791335</v>
       </c>
       <c r="I5">
-        <v>25.13818093510419</v>
+        <v>30.51313955152014</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.253614490123524</v>
+        <v>10.46308911732526</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0620541116728</v>
+        <v>19.1224636123794</v>
       </c>
       <c r="C6">
-        <v>14.97485311569447</v>
+        <v>8.419317679726573</v>
       </c>
       <c r="D6">
-        <v>5.150193395623041</v>
+        <v>7.302074050889313</v>
       </c>
       <c r="E6">
-        <v>5.709907143524958</v>
+        <v>9.420507182230903</v>
       </c>
       <c r="F6">
-        <v>36.29615485933705</v>
+        <v>38.41308179345099</v>
       </c>
       <c r="I6">
-        <v>25.10551017709802</v>
+        <v>30.51010478251471</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.242097793819467</v>
+        <v>10.46260743214769</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61025078981073</v>
+        <v>19.24706158014774</v>
       </c>
       <c r="C7">
-        <v>15.3584949623458</v>
+        <v>8.594627374023107</v>
       </c>
       <c r="D7">
-        <v>5.134298670281785</v>
+        <v>7.295792457780713</v>
       </c>
       <c r="E7">
-        <v>5.700959008272616</v>
+        <v>9.415541586568741</v>
       </c>
       <c r="F7">
-        <v>36.85889118458264</v>
+        <v>38.51340833639536</v>
       </c>
       <c r="I7">
-        <v>25.33379328419512</v>
+        <v>30.53182725196275</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.322211153214137</v>
+        <v>10.46615656266563</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91152942478072</v>
+        <v>19.80133929102289</v>
       </c>
       <c r="C8">
-        <v>16.96996413724213</v>
+        <v>9.332746818840858</v>
       </c>
       <c r="D8">
-        <v>5.07125415325131</v>
+        <v>7.270174846210807</v>
       </c>
       <c r="E8">
-        <v>5.664556131363615</v>
+        <v>9.39504430710369</v>
       </c>
       <c r="F8">
-        <v>39.34241394892624</v>
+        <v>38.9786991849553</v>
       </c>
       <c r="I8">
-        <v>26.37881991601491</v>
+        <v>30.64395101892245</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.679662001757159</v>
+        <v>10.48689764756647</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.0165850930236</v>
+        <v>20.89294613006399</v>
       </c>
       <c r="C9">
-        <v>19.85145065281361</v>
+        <v>10.7030257932566</v>
       </c>
       <c r="D9">
-        <v>4.97779030520867</v>
+        <v>7.227566252419821</v>
       </c>
       <c r="E9">
-        <v>5.604931925075003</v>
+        <v>9.359916952761653</v>
       </c>
       <c r="F9">
-        <v>44.19767753625439</v>
+        <v>39.96690302714735</v>
       </c>
       <c r="I9">
-        <v>28.56736150046677</v>
+        <v>30.92201830630472</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.39186478802362</v>
+        <v>10.54569146654218</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.80196136756732</v>
+        <v>21.68815800892214</v>
       </c>
       <c r="C10">
-        <v>21.81410416352604</v>
+        <v>11.65592536533999</v>
       </c>
       <c r="D10">
-        <v>4.932823736471904</v>
+        <v>7.20097994422631</v>
       </c>
       <c r="E10">
-        <v>5.569086350200008</v>
+        <v>9.337182297514634</v>
       </c>
       <c r="F10">
-        <v>47.75456935832245</v>
+        <v>40.73387671377539</v>
       </c>
       <c r="I10">
-        <v>30.26727940076669</v>
+        <v>31.16136813160038</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.920842211377176</v>
+        <v>10.59977624191555</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.02382790991415</v>
+        <v>22.04655271727577</v>
       </c>
       <c r="C11">
-        <v>22.67747639192466</v>
+        <v>12.06469726788548</v>
       </c>
       <c r="D11">
-        <v>4.918952676451827</v>
+        <v>7.189924629262086</v>
       </c>
       <c r="E11">
-        <v>5.5547287736978</v>
+        <v>9.327503741308254</v>
       </c>
       <c r="F11">
-        <v>49.37342797716148</v>
+        <v>41.09048443099115</v>
       </c>
       <c r="I11">
-        <v>31.0632720456432</v>
+        <v>31.27773105724925</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.162877976853741</v>
+        <v>10.62670200037054</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.48048726741742</v>
+        <v>22.18163975910063</v>
       </c>
       <c r="C12">
-        <v>23.00057193101552</v>
+        <v>12.21595684453951</v>
       </c>
       <c r="D12">
-        <v>4.914791302749227</v>
+        <v>7.185888941332712</v>
       </c>
       <c r="E12">
-        <v>5.549595133420701</v>
+        <v>9.323933896757771</v>
       </c>
       <c r="F12">
-        <v>49.98704223692562</v>
+        <v>41.2265262467049</v>
       </c>
       <c r="I12">
-        <v>31.36828081138094</v>
+        <v>31.3228555317661</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.254774041279692</v>
+        <v>10.63722759764451</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.3823976954919</v>
+        <v>22.15257657828244</v>
       </c>
       <c r="C13">
-        <v>22.93115167489745</v>
+        <v>12.18353723291766</v>
       </c>
       <c r="D13">
-        <v>4.9156364455568</v>
+        <v>7.186751374371801</v>
       </c>
       <c r="E13">
-        <v>5.550686852295414</v>
+        <v>9.324698495151502</v>
       </c>
       <c r="F13">
-        <v>49.85485362477375</v>
+        <v>41.19718433960495</v>
       </c>
       <c r="I13">
-        <v>31.30242614255003</v>
+        <v>31.31309027665803</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.234970863012395</v>
+        <v>10.63494614906975</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.06151556730454</v>
+        <v>22.05767983074782</v>
       </c>
       <c r="C14">
-        <v>22.70413226670688</v>
+        <v>12.07721218969031</v>
       </c>
       <c r="D14">
-        <v>4.91858753708759</v>
+        <v>7.189589582499149</v>
       </c>
       <c r="E14">
-        <v>5.554300200410022</v>
+        <v>9.327208140953418</v>
       </c>
       <c r="F14">
-        <v>49.42389519726721</v>
+        <v>41.10165720053386</v>
       </c>
       <c r="I14">
-        <v>31.08829128354296</v>
+        <v>31.28142231951274</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.170433134839291</v>
+        <v>10.62756137361983</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.86419515135055</v>
+        <v>21.99946667488283</v>
       </c>
       <c r="C15">
-        <v>22.56458819635785</v>
+        <v>12.01162544166569</v>
       </c>
       <c r="D15">
-        <v>4.920541962411849</v>
+        <v>7.191347734661573</v>
       </c>
       <c r="E15">
-        <v>5.556553733013434</v>
+        <v>9.328757765272181</v>
       </c>
       <c r="F15">
-        <v>49.1600146545599</v>
+        <v>41.04327141083554</v>
       </c>
       <c r="I15">
-        <v>30.95760541548348</v>
+        <v>31.26216237793215</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.130935142402295</v>
+        <v>10.623080740036</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.72123798668184</v>
+        <v>21.66465582365627</v>
       </c>
       <c r="C16">
-        <v>21.75712020242321</v>
+        <v>11.62871564968213</v>
       </c>
       <c r="D16">
-        <v>4.933874579347276</v>
+        <v>7.201723453697467</v>
       </c>
       <c r="E16">
-        <v>5.570065737251079</v>
+        <v>9.337828148803625</v>
       </c>
       <c r="F16">
-        <v>47.64882522075061</v>
+        <v>40.710717623063</v>
       </c>
       <c r="I16">
-        <v>30.21574121509298</v>
+        <v>31.15391281154296</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.905055703718837</v>
+        <v>10.59806293253555</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.00880066039583</v>
+        <v>21.45829404364759</v>
       </c>
       <c r="C17">
-        <v>21.25448202169417</v>
+        <v>11.38749865246189</v>
       </c>
       <c r="D17">
-        <v>4.943836019787253</v>
+        <v>7.208355652137945</v>
       </c>
       <c r="E17">
-        <v>5.578869111764522</v>
+        <v>9.343562340819791</v>
       </c>
       <c r="F17">
-        <v>46.72224068857458</v>
+        <v>40.50860579131517</v>
       </c>
       <c r="I17">
-        <v>29.7666415688134</v>
+        <v>31.0894110407357</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.76686588149823</v>
+        <v>10.58330702486917</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.59473790270572</v>
+        <v>21.33929300318195</v>
       </c>
       <c r="C18">
-        <v>20.96257955349239</v>
+        <v>11.24643033151869</v>
       </c>
       <c r="D18">
-        <v>4.950175451638438</v>
+        <v>7.212268026150713</v>
       </c>
       <c r="E18">
-        <v>5.584114398231311</v>
+        <v>9.346922964989735</v>
       </c>
       <c r="F18">
-        <v>46.18933043238513</v>
+        <v>40.39308836884224</v>
       </c>
       <c r="I18">
-        <v>29.51044269156592</v>
+        <v>31.05301658005054</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.687510711312047</v>
+        <v>10.57503870625499</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45379385911931</v>
+        <v>21.29895317885869</v>
       </c>
       <c r="C19">
-        <v>20.86325482255083</v>
+        <v>11.19826682144453</v>
       </c>
       <c r="D19">
-        <v>4.952422578533778</v>
+        <v>7.213609430306847</v>
       </c>
       <c r="E19">
-        <v>5.585920956116439</v>
+        <v>9.348071549903056</v>
       </c>
       <c r="F19">
-        <v>46.00889131101308</v>
+        <v>40.35410507375844</v>
       </c>
       <c r="I19">
-        <v>29.42405257211075</v>
+        <v>31.04081560647256</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.660663565820846</v>
+        <v>10.57227692139444</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.08508142677411</v>
+        <v>21.48029449949723</v>
       </c>
       <c r="C20">
-        <v>21.30827568344309</v>
+        <v>11.41341727615806</v>
       </c>
       <c r="D20">
-        <v>4.942711512455366</v>
+        <v>7.207639521266566</v>
       </c>
       <c r="E20">
-        <v>5.577913006791078</v>
+        <v>9.342945462518736</v>
       </c>
       <c r="F20">
-        <v>46.82087061565738</v>
+        <v>40.53004594952814</v>
       </c>
       <c r="I20">
-        <v>29.81422846248138</v>
+        <v>31.09620447908702</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.781562967270579</v>
+        <v>10.58485519378523</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.15592613286905</v>
+        <v>22.085571510544</v>
       </c>
       <c r="C21">
-        <v>22.7709143138807</v>
+        <v>12.10853817571903</v>
       </c>
       <c r="D21">
-        <v>4.917689846885296</v>
+        <v>7.18875183084801</v>
       </c>
       <c r="E21">
-        <v>5.553230436360403</v>
+        <v>9.326468414647401</v>
       </c>
       <c r="F21">
-        <v>49.5504574288373</v>
+        <v>41.12968949046338</v>
       </c>
       <c r="I21">
-        <v>31.15108756774082</v>
+        <v>31.29069532156327</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.189382393996274</v>
+        <v>10.6297215598927</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.47443807328748</v>
+        <v>22.47742571362603</v>
       </c>
       <c r="C22">
-        <v>23.70464909445833</v>
+        <v>12.54225302758599</v>
       </c>
       <c r="D22">
-        <v>4.907782018402016</v>
+        <v>7.177286770266772</v>
       </c>
       <c r="E22">
-        <v>5.538880692080161</v>
+        <v>9.316254604060301</v>
       </c>
       <c r="F22">
-        <v>51.33819371472232</v>
+        <v>41.52738273510404</v>
       </c>
       <c r="I22">
-        <v>32.04591588745386</v>
+        <v>31.42397834378262</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.457367523299233</v>
+        <v>10.66096188282128</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.77374331526057</v>
+        <v>22.26867317683481</v>
       </c>
       <c r="C23">
-        <v>23.20818215707</v>
+        <v>12.31264856866929</v>
       </c>
       <c r="D23">
-        <v>4.91242633942948</v>
+        <v>7.183325006219405</v>
       </c>
       <c r="E23">
-        <v>5.546367568592557</v>
+        <v>9.321655200259265</v>
       </c>
       <c r="F23">
-        <v>50.38348859499576</v>
+        <v>41.31463185786316</v>
       </c>
       <c r="I23">
-        <v>31.56626400659628</v>
+        <v>31.352283572781</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.314185363961425</v>
+        <v>10.64411449410316</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.05060885909747</v>
+        <v>21.4703492062582</v>
       </c>
       <c r="C24">
-        <v>21.28396472096976</v>
+        <v>11.401706910473</v>
       </c>
       <c r="D24">
-        <v>4.943218005165228</v>
+        <v>7.207962974416557</v>
       </c>
       <c r="E24">
-        <v>5.578344690055125</v>
+        <v>9.343224153959442</v>
       </c>
       <c r="F24">
-        <v>46.77628069540155</v>
+        <v>40.52035072990979</v>
       </c>
       <c r="I24">
-        <v>29.79270823832194</v>
+        <v>31.0931310200398</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.774918130946146</v>
+        <v>10.584154596448</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94800853841164</v>
+        <v>20.59815977354552</v>
       </c>
       <c r="C25">
-        <v>19.10027211644511</v>
+        <v>10.33007424475665</v>
       </c>
       <c r="D25">
-        <v>4.999344553168453</v>
+        <v>7.238269434440639</v>
       </c>
       <c r="E25">
-        <v>5.61972902489851</v>
+        <v>9.368878968164234</v>
       </c>
       <c r="F25">
-        <v>42.88645766698922</v>
+        <v>39.69198121533708</v>
       </c>
       <c r="I25">
-        <v>27.95983017396985</v>
+        <v>30.84059858920527</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.198171054047922</v>
+        <v>10.52786066065584</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_253/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.95221006506002</v>
+        <v>24.50688695811295</v>
       </c>
       <c r="C2">
-        <v>9.523817997876336</v>
+        <v>17.3872250738868</v>
       </c>
       <c r="D2">
-        <v>7.263747435841142</v>
+        <v>5.056043329659916</v>
       </c>
       <c r="E2">
-        <v>9.38983413409801</v>
+        <v>5.655463802384434</v>
       </c>
       <c r="F2">
-        <v>39.11008160143938</v>
+        <v>40.01467242255104</v>
       </c>
       <c r="I2">
-        <v>30.67827950301434</v>
+        <v>26.67122009162576</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.49374847646193</v>
+        <v>7.777351888649829</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51527105547694</v>
+        <v>22.74883251693436</v>
       </c>
       <c r="C3">
-        <v>8.959559772404363</v>
+        <v>16.15554762622972</v>
       </c>
       <c r="D3">
-        <v>7.282965234280929</v>
+        <v>5.102315573799264</v>
       </c>
       <c r="E3">
-        <v>9.405329733874636</v>
+        <v>5.682706666714569</v>
       </c>
       <c r="F3">
-        <v>38.73492891471737</v>
+        <v>38.06399641320399</v>
       </c>
       <c r="I3">
-        <v>30.58314328341859</v>
+        <v>25.83361015667313</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.47525806446442</v>
+        <v>7.494927746606479</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.2485225153784</v>
+        <v>21.61660027174857</v>
       </c>
       <c r="C4">
-        <v>8.596659747759153</v>
+        <v>15.36293885882302</v>
       </c>
       <c r="D4">
-        <v>7.295720102052071</v>
+        <v>5.134116374100294</v>
       </c>
       <c r="E4">
-        <v>9.415484258095381</v>
+        <v>5.700855963758839</v>
       </c>
       <c r="F4">
-        <v>38.51459485985152</v>
+        <v>36.86547721042</v>
       </c>
       <c r="I4">
-        <v>30.53209033613397</v>
+        <v>25.33648496194112</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.46620087574238</v>
+        <v>7.323150902159842</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.14038131367918</v>
+        <v>21.14172626765348</v>
       </c>
       <c r="C5">
-        <v>8.444775081115507</v>
+        <v>15.03060615589057</v>
       </c>
       <c r="D5">
-        <v>7.301156872693726</v>
+        <v>5.147864569746882</v>
       </c>
       <c r="E5">
-        <v>9.419783543343966</v>
+        <v>5.708600389713339</v>
       </c>
       <c r="F5">
-        <v>38.42740137791335</v>
+        <v>36.37721071535599</v>
       </c>
       <c r="I5">
-        <v>30.51313955152014</v>
+        <v>25.13818093510417</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.46308911732526</v>
+        <v>7.253614490123474</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.1224636123794</v>
+        <v>21.06205411167277</v>
       </c>
       <c r="C6">
-        <v>8.419317679726573</v>
+        <v>14.97485311569458</v>
       </c>
       <c r="D6">
-        <v>7.302074050889313</v>
+        <v>5.150193395622995</v>
       </c>
       <c r="E6">
-        <v>9.420507182230903</v>
+        <v>5.709907143524958</v>
       </c>
       <c r="F6">
-        <v>38.41308179345099</v>
+        <v>36.29615485933705</v>
       </c>
       <c r="I6">
-        <v>30.51010478251471</v>
+        <v>25.10551017709809</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.46260743214769</v>
+        <v>7.242097793819401</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.24706158014774</v>
+        <v>21.61025078981077</v>
       </c>
       <c r="C7">
-        <v>8.594627374023107</v>
+        <v>15.35849496234584</v>
       </c>
       <c r="D7">
-        <v>7.295792457780713</v>
+        <v>5.134298670281905</v>
       </c>
       <c r="E7">
-        <v>9.415541586568741</v>
+        <v>5.700959008272681</v>
       </c>
       <c r="F7">
-        <v>38.51340833639536</v>
+        <v>36.85889118458254</v>
       </c>
       <c r="I7">
-        <v>30.53182725196275</v>
+        <v>25.33379328419502</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.46615656266563</v>
+        <v>7.322211153214109</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.80133929102289</v>
+        <v>23.91152942478069</v>
       </c>
       <c r="C8">
-        <v>9.332746818840858</v>
+        <v>16.96996413724225</v>
       </c>
       <c r="D8">
-        <v>7.270174846210807</v>
+        <v>5.071254153251299</v>
       </c>
       <c r="E8">
-        <v>9.39504430710369</v>
+        <v>5.664556131363738</v>
       </c>
       <c r="F8">
-        <v>38.9786991849553</v>
+        <v>39.34241394892629</v>
       </c>
       <c r="I8">
-        <v>30.64395101892245</v>
+        <v>26.37881991601502</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.48689764756647</v>
+        <v>7.679662001757176</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.89294613006399</v>
+        <v>28.01658509302365</v>
       </c>
       <c r="C9">
-        <v>10.7030257932566</v>
+        <v>19.85145065281373</v>
       </c>
       <c r="D9">
-        <v>7.227566252419821</v>
+        <v>4.977790305208753</v>
       </c>
       <c r="E9">
-        <v>9.359916952761653</v>
+        <v>5.604931925075136</v>
       </c>
       <c r="F9">
-        <v>39.96690302714735</v>
+        <v>44.19767753625453</v>
       </c>
       <c r="I9">
-        <v>30.92201830630472</v>
+        <v>28.56736150046687</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.54569146654218</v>
+        <v>8.391864788023627</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.68815800892214</v>
+        <v>30.80196136756733</v>
       </c>
       <c r="C10">
-        <v>11.65592536533999</v>
+        <v>21.81410416352603</v>
       </c>
       <c r="D10">
-        <v>7.20097994422631</v>
+        <v>4.932823736471928</v>
       </c>
       <c r="E10">
-        <v>9.337182297514634</v>
+        <v>5.569086350200196</v>
       </c>
       <c r="F10">
-        <v>40.73387671377539</v>
+        <v>47.75456935832257</v>
       </c>
       <c r="I10">
-        <v>31.16136813160038</v>
+        <v>30.26727940076673</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.59977624191555</v>
+        <v>8.920842211377195</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.04655271727577</v>
+        <v>32.02382790991417</v>
       </c>
       <c r="C11">
-        <v>12.06469726788548</v>
+        <v>22.67747639192456</v>
       </c>
       <c r="D11">
-        <v>7.189924629262086</v>
+        <v>4.918952676451813</v>
       </c>
       <c r="E11">
-        <v>9.327503741308254</v>
+        <v>5.554728773697866</v>
       </c>
       <c r="F11">
-        <v>41.09048443099115</v>
+        <v>49.37342797716152</v>
       </c>
       <c r="I11">
-        <v>31.27773105724925</v>
+        <v>31.06327204564323</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.62670200037054</v>
+        <v>9.16287797685375</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.18163975910063</v>
+        <v>32.48048726741746</v>
       </c>
       <c r="C12">
-        <v>12.21595684453951</v>
+        <v>23.00057193101541</v>
       </c>
       <c r="D12">
-        <v>7.185888941332712</v>
+        <v>4.91479130274922</v>
       </c>
       <c r="E12">
-        <v>9.323933896757771</v>
+        <v>5.549595133420694</v>
       </c>
       <c r="F12">
-        <v>41.2265262467049</v>
+        <v>49.9870422369258</v>
       </c>
       <c r="I12">
-        <v>31.3228555317661</v>
+        <v>31.368280811381</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.63722759764451</v>
+        <v>9.254774041279704</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.15257657828244</v>
+        <v>32.38239769549195</v>
       </c>
       <c r="C13">
-        <v>12.18353723291766</v>
+        <v>22.93115167489754</v>
       </c>
       <c r="D13">
-        <v>7.186751374371801</v>
+        <v>4.915636445556876</v>
       </c>
       <c r="E13">
-        <v>9.324698495151502</v>
+        <v>5.550686852295414</v>
       </c>
       <c r="F13">
-        <v>41.19718433960495</v>
+        <v>49.85485362477402</v>
       </c>
       <c r="I13">
-        <v>31.31309027665803</v>
+        <v>31.30242614255022</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.63494614906975</v>
+        <v>9.234970863012402</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.05767983074782</v>
+        <v>32.0615155673046</v>
       </c>
       <c r="C14">
-        <v>12.07721218969031</v>
+        <v>22.70413226670694</v>
       </c>
       <c r="D14">
-        <v>7.189589582499149</v>
+        <v>4.918587537087515</v>
       </c>
       <c r="E14">
-        <v>9.327208140953418</v>
+        <v>5.554300200410026</v>
       </c>
       <c r="F14">
-        <v>41.10165720053386</v>
+        <v>49.42389519726741</v>
       </c>
       <c r="I14">
-        <v>31.28142231951274</v>
+        <v>31.08829128354307</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.62756137361983</v>
+        <v>9.170433134839273</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.99946667488283</v>
+        <v>31.86419515135065</v>
       </c>
       <c r="C15">
-        <v>12.01162544166569</v>
+        <v>22.56458819635792</v>
       </c>
       <c r="D15">
-        <v>7.191347734661573</v>
+        <v>4.920541962411932</v>
       </c>
       <c r="E15">
-        <v>9.328757765272181</v>
+        <v>5.556553733013439</v>
       </c>
       <c r="F15">
-        <v>41.04327141083554</v>
+        <v>49.16001465456006</v>
       </c>
       <c r="I15">
-        <v>31.26216237793215</v>
+        <v>30.95760541548355</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.623080740036</v>
+        <v>9.130935142402294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.66465582365627</v>
+        <v>30.72123798668189</v>
       </c>
       <c r="C16">
-        <v>11.62871564968213</v>
+        <v>21.7571202024229</v>
       </c>
       <c r="D16">
-        <v>7.201723453697467</v>
+        <v>4.933874579347252</v>
       </c>
       <c r="E16">
-        <v>9.337828148803625</v>
+        <v>5.570065737250776</v>
       </c>
       <c r="F16">
-        <v>40.710717623063</v>
+        <v>47.64882522075049</v>
       </c>
       <c r="I16">
-        <v>31.15391281154296</v>
+        <v>30.2157412150929</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.59806293253555</v>
+        <v>8.905055703718844</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.45829404364759</v>
+        <v>30.0088006603958</v>
       </c>
       <c r="C17">
-        <v>11.38749865246189</v>
+        <v>21.25448202169417</v>
       </c>
       <c r="D17">
-        <v>7.208355652137945</v>
+        <v>4.943836019787391</v>
       </c>
       <c r="E17">
-        <v>9.343562340819791</v>
+        <v>5.578869111764583</v>
       </c>
       <c r="F17">
-        <v>40.50860579131517</v>
+        <v>46.72224068857463</v>
       </c>
       <c r="I17">
-        <v>31.0894110407357</v>
+        <v>29.76664156881344</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.58330702486917</v>
+        <v>8.766865881498248</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.33929300318195</v>
+        <v>29.59473790270579</v>
       </c>
       <c r="C18">
-        <v>11.24643033151869</v>
+        <v>20.96257955349241</v>
       </c>
       <c r="D18">
-        <v>7.212268026150713</v>
+        <v>4.950175451638578</v>
       </c>
       <c r="E18">
-        <v>9.346922964989735</v>
+        <v>5.58411439823137</v>
       </c>
       <c r="F18">
-        <v>40.39308836884224</v>
+        <v>46.18933043238518</v>
       </c>
       <c r="I18">
-        <v>31.05301658005054</v>
+        <v>29.51044269156593</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.57503870625499</v>
+        <v>8.687510711312052</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.29895317885869</v>
+        <v>29.4537938591193</v>
       </c>
       <c r="C19">
-        <v>11.19826682144453</v>
+        <v>20.86325482255075</v>
       </c>
       <c r="D19">
-        <v>7.213609430306847</v>
+        <v>4.952422578533849</v>
       </c>
       <c r="E19">
-        <v>9.348071549903056</v>
+        <v>5.585920956116439</v>
       </c>
       <c r="F19">
-        <v>40.35410507375844</v>
+        <v>46.00889131101308</v>
       </c>
       <c r="I19">
-        <v>31.04081560647256</v>
+        <v>29.42405257211074</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.57227692139444</v>
+        <v>8.660663565820851</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.48029449949723</v>
+        <v>30.08508142677421</v>
       </c>
       <c r="C20">
-        <v>11.41341727615806</v>
+        <v>21.30827568344316</v>
       </c>
       <c r="D20">
-        <v>7.207639521266566</v>
+        <v>4.942711512455454</v>
       </c>
       <c r="E20">
-        <v>9.342945462518736</v>
+        <v>5.577913006791337</v>
       </c>
       <c r="F20">
-        <v>40.53004594952814</v>
+        <v>46.8208706156575</v>
       </c>
       <c r="I20">
-        <v>31.09620447908702</v>
+        <v>29.81422846248143</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.58485519378523</v>
+        <v>8.781562967270627</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.085571510544</v>
+        <v>32.15592613286912</v>
       </c>
       <c r="C21">
-        <v>12.10853817571903</v>
+        <v>22.77091431388083</v>
       </c>
       <c r="D21">
-        <v>7.18875183084801</v>
+        <v>4.917689846885378</v>
       </c>
       <c r="E21">
-        <v>9.326468414647401</v>
+        <v>5.553230436360526</v>
       </c>
       <c r="F21">
-        <v>41.12968949046338</v>
+        <v>49.55045742883751</v>
       </c>
       <c r="I21">
-        <v>31.29069532156327</v>
+        <v>31.15108756774097</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.6297215598927</v>
+        <v>9.189382393996308</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.47742571362603</v>
+        <v>33.47443807328752</v>
       </c>
       <c r="C22">
-        <v>12.54225302758599</v>
+        <v>23.70464909445849</v>
       </c>
       <c r="D22">
-        <v>7.177286770266772</v>
+        <v>4.907782018401958</v>
       </c>
       <c r="E22">
-        <v>9.316254604060301</v>
+        <v>5.538880692080222</v>
       </c>
       <c r="F22">
-        <v>41.52738273510404</v>
+        <v>51.3381937147226</v>
       </c>
       <c r="I22">
-        <v>31.42397834378262</v>
+        <v>32.04591588745403</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.66096188282128</v>
+        <v>9.457367523299228</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.26867317683481</v>
+        <v>32.77374331526052</v>
       </c>
       <c r="C23">
-        <v>12.31264856866929</v>
+        <v>23.20818215706995</v>
       </c>
       <c r="D23">
-        <v>7.183325006219405</v>
+        <v>4.912426339429635</v>
       </c>
       <c r="E23">
-        <v>9.321655200259265</v>
+        <v>5.54636756859257</v>
       </c>
       <c r="F23">
-        <v>41.31463185786316</v>
+        <v>50.38348859499588</v>
       </c>
       <c r="I23">
-        <v>31.352283572781</v>
+        <v>31.56626400659639</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.64411449410316</v>
+        <v>9.314185363961421</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.4703492062582</v>
+        <v>30.05060885909745</v>
       </c>
       <c r="C24">
-        <v>11.401706910473</v>
+        <v>21.28396472096972</v>
       </c>
       <c r="D24">
-        <v>7.207962974416557</v>
+        <v>4.943218005165216</v>
       </c>
       <c r="E24">
-        <v>9.343224153959442</v>
+        <v>5.578344690054935</v>
       </c>
       <c r="F24">
-        <v>40.52035072990979</v>
+        <v>46.77628069540161</v>
       </c>
       <c r="I24">
-        <v>31.0931310200398</v>
+        <v>29.79270823832199</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.584154596448</v>
+        <v>8.774918130946107</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.59815977354552</v>
+        <v>26.94800853841167</v>
       </c>
       <c r="C25">
-        <v>10.33007424475665</v>
+        <v>19.10027211644501</v>
       </c>
       <c r="D25">
-        <v>7.238269434440639</v>
+        <v>4.999344553168442</v>
       </c>
       <c r="E25">
-        <v>9.368878968164234</v>
+        <v>5.619729024898573</v>
       </c>
       <c r="F25">
-        <v>39.69198121533708</v>
+        <v>42.88645766698919</v>
       </c>
       <c r="I25">
-        <v>30.84059858920527</v>
+        <v>27.95983017396982</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.52786066065584</v>
+        <v>8.198171054047943</v>
       </c>
       <c r="M25">
         <v>0</v>
